--- a/MOS評価シート.xlsx
+++ b/MOS評価シート.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
   <si>
     <t xml:space="preserve">音声合成評価シート</t>
   </si>
@@ -57,456 +57,456 @@
     <t xml:space="preserve">No. 1</t>
   </si>
   <si>
+    <t xml:space="preserve">船に乗っている事は、溺れるという冒険を伴って、牢獄の中にいるのと同じである。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">むろん、この両極端の間に、多くのバリエーションがある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知らないうちに月日は経ってしまう、俺はチャンスを逃したくない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">価値観の違う人とうまくやっていくのは難しい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すり減らすのはシーツではなく靴にしろ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">橋の上に立っている人を知っていますか。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">６歳以上の子供は、学校に通わなければならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">母の死は、私の生涯に、大きな空白を残した。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">税に関して言えば、それは魅力的な制度だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お返事が来ないのですが、私のメールが届かなかったのではないかと気になっています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登校の途中、忘れずにこの手紙を出してね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微生物学の基本から、最新の情報までを網羅する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実も結ぶが、挿し木でも根付くらしい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">米国の豊かさは、発展途上国の貧しさと比較対照される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北海道に行ったら、やっぱり、海の幸を食べないと、行った意味がないでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永続的な家をもたなかったから、食糧のための作物を栽培することがなかった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ますます多くの人が、その媒体の双方向的な性質を、利用しようと、躍起になっている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">長所が多いのに、彼女は自慢したがらなかった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">雲がだんだん黒くなって、雨が降りそうです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高価なものもあれば、大変安いものもある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">良樹はお金に困って、五郎に二万円貸してくれと頼んだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知り合いの修理屋さんに電話して、壊れた洗濯機をすぐさま直してもらうわ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冗談にしろ、恐怖からにしろ、決してうそを言うな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキサス州は、メキシコと接している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 32</t>
+  </si>
+  <si>
     <t xml:space="preserve">運転するときは、いくら注意してもしすぎることはありません。</t>
   </si>
   <si>
-    <t xml:space="preserve">No. 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">価値観の違う人とうまくやっていくのは難しい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 3</t>
+    <t xml:space="preserve">No. 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テニスにもあるけど、４大大会って何。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１０月に総会を開催すべきだという提案があった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通勤列車に乗ると、鞄が棚に、きちんと並べられていることが見える。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 51</t>
   </si>
   <si>
     <t xml:space="preserve">馬というものは、ひじょうに役に立つ。</t>
   </si>
   <si>
-    <t xml:space="preserve">No. 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北海道に行ったら、やっぱり、海の幸を食べないと、行った意味がないでしょう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">冗談にしろ、恐怖からにしろ、決してうそを言うな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">橋の上に立っている人を知っていますか。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知り合いの修理屋さんに電話して、壊れた洗濯機をすぐさま直してもらうわ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキサス州は、メキシコと接している。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 9</t>
+    <t xml:space="preserve">No. 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">殺人犯は、もうすぐ自分の罪を白状するだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">母は私の望むものは、何でも言わなくてもかなえてくれる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケリーは、体育をサボって家に帰った。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私もパーティーに来るべきだ、と、彼はつけ加えた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">車内の彼の周りでは、ほかの乗客たちが、前後左右に揺れていた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皿洗いを命じられて、彼女は口をとがらせた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自制できるようにならねばならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">動悸が激しくなることが、よくあります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何回くらい君のペットにえさを与える必要がありますか。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">毎年春になると、庭に出るのを楽しみにしている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. 111</t>
   </si>
   <si>
     <t xml:space="preserve">剣歯虎が絶滅したのは、氷河時代であった。</t>
   </si>
   <si>
-    <t xml:space="preserve">No. 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テニスにもあるけど、４大大会って何。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実も結ぶが、挿し木でも根付くらしい。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通勤列車に乗ると、鞄が棚に、きちんと並べられていることが見える。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">車内の彼の周りでは、ほかの乗客たちが、前後左右に揺れていた。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">良樹はお金に困って、五郎に二万円貸してくれと頼んだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">皿洗いを命じられて、彼女は口をとがらせた。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">船に乗っている事は、溺れるという冒険を伴って、牢獄の中にいるのと同じである。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自制できるようにならねばならない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ますます多くの人が、その媒体の双方向的な性質を、利用しようと、躍起になっている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">米国の豊かさは、発展途上国の貧しさと比較対照される。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高価なものもあれば、大変安いものもある。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">動悸が激しくなることが、よくあります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">すり減らすのはシーツではなく靴にしろ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雲がだんだん黒くなって、雨が降りそうです。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ケリーは、体育をサボって家に帰った。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">お返事が来ないのですが、私のメールが届かなかったのではないかと気になっています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">毎年春になると、庭に出るのを楽しみにしている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永続的な家をもたなかったから、食糧のための作物を栽培することがなかった。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">６歳以上の子供は、学校に通わなければならない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私もパーティーに来るべきだ、と、彼はつけ加えた。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">母は私の望むものは、何でも言わなくてもかなえてくれる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">殺人犯は、もうすぐ自分の罪を白状するだろう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">むろん、この両極端の間に、多くのバリエーションがある。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">知らないうちに月日は経ってしまう、俺はチャンスを逃したくない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">１０月に総会を開催すべきだという提案があった。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">税に関して言えば、それは魅力的な制度だ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登校の途中、忘れずにこの手紙を出してね。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">何回くらい君のペットにえさを与える必要がありますか。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微生物学の基本から、最新の情報までを網羅する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">母の死は、私の生涯に、大きな空白を残した。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">長所が多いのに、彼女は自慢したがらなかった。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 111</t>
-  </si>
-  <si>
     <t xml:space="preserve">No. 112</t>
   </si>
   <si>
@@ -652,66 +652,6 @@
   </si>
   <si>
     <t xml:space="preserve">No. 160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. 180</t>
   </si>
 </sst>
 </file>
@@ -861,10 +801,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D169" activeCellId="0" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,157 +884,157 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
@@ -1114,17 +1054,17 @@
         <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
@@ -1134,27 +1074,27 @@
         <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
@@ -1164,7 +1104,7 @@
         <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -1211,17 +1151,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -1240,7 +1180,7 @@
         <v>63</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -1249,80 +1189,80 @@
         <v>64</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>41</v>
@@ -1332,636 +1272,636 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="C68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="C91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="C104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C116" s="5"/>
     </row>
@@ -1970,7 +1910,7 @@
         <v>157</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C117" s="5"/>
     </row>
@@ -1979,7 +1919,7 @@
         <v>158</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="C118" s="5"/>
     </row>
@@ -1988,7 +1928,7 @@
         <v>159</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C119" s="5"/>
     </row>
@@ -1997,7 +1937,7 @@
         <v>160</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C120" s="5"/>
     </row>
@@ -2006,7 +1946,7 @@
         <v>161</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C121" s="5"/>
     </row>
@@ -2015,7 +1955,7 @@
         <v>162</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C122" s="5"/>
     </row>
@@ -2024,7 +1964,7 @@
         <v>163</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C123" s="5"/>
     </row>
@@ -2033,7 +1973,7 @@
         <v>164</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C124" s="5"/>
     </row>
@@ -2042,7 +1982,7 @@
         <v>165</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C125" s="5"/>
     </row>
@@ -2051,7 +1991,7 @@
         <v>166</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C126" s="5"/>
     </row>
@@ -2060,7 +2000,7 @@
         <v>167</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C127" s="5"/>
     </row>
@@ -2069,7 +2009,7 @@
         <v>168</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C128" s="5"/>
     </row>
@@ -2078,7 +2018,7 @@
         <v>169</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C129" s="5"/>
     </row>
@@ -2087,7 +2027,7 @@
         <v>170</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C130" s="5"/>
     </row>
@@ -2096,7 +2036,7 @@
         <v>171</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C131" s="5"/>
     </row>
@@ -2105,7 +2045,7 @@
         <v>172</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C132" s="5"/>
     </row>
@@ -2114,7 +2054,7 @@
         <v>173</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C133" s="5"/>
     </row>
@@ -2123,7 +2063,7 @@
         <v>174</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C134" s="5"/>
     </row>
@@ -2132,7 +2072,7 @@
         <v>175</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C135" s="5"/>
     </row>
@@ -2141,7 +2081,7 @@
         <v>176</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C136" s="5"/>
     </row>
@@ -2150,7 +2090,7 @@
         <v>177</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C137" s="5"/>
     </row>
@@ -2159,7 +2099,7 @@
         <v>178</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C138" s="5"/>
     </row>
@@ -2168,7 +2108,7 @@
         <v>179</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C139" s="5"/>
     </row>
@@ -2177,7 +2117,7 @@
         <v>180</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C140" s="5"/>
     </row>
@@ -2186,7 +2126,7 @@
         <v>181</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C141" s="5"/>
     </row>
@@ -2195,7 +2135,7 @@
         <v>182</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C142" s="5"/>
     </row>
@@ -2213,7 +2153,7 @@
         <v>184</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C144" s="5"/>
     </row>
@@ -2222,7 +2162,7 @@
         <v>185</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="C145" s="5"/>
     </row>
@@ -2231,7 +2171,7 @@
         <v>186</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C146" s="5"/>
     </row>
@@ -2240,7 +2180,7 @@
         <v>187</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C147" s="5"/>
     </row>
@@ -2249,7 +2189,7 @@
         <v>188</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C148" s="5"/>
     </row>
@@ -2258,7 +2198,7 @@
         <v>189</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="C149" s="5"/>
     </row>
@@ -2267,7 +2207,7 @@
         <v>190</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C150" s="5"/>
     </row>
@@ -2276,7 +2216,7 @@
         <v>191</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="C151" s="5"/>
     </row>
@@ -2285,7 +2225,7 @@
         <v>192</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C152" s="5"/>
     </row>
@@ -2294,7 +2234,7 @@
         <v>193</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C153" s="5"/>
     </row>
@@ -2303,7 +2243,7 @@
         <v>194</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C154" s="5"/>
     </row>
@@ -2312,7 +2252,7 @@
         <v>195</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C155" s="5"/>
     </row>
@@ -2321,7 +2261,7 @@
         <v>196</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C156" s="5"/>
     </row>
@@ -2330,7 +2270,7 @@
         <v>197</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C157" s="5"/>
     </row>
@@ -2339,7 +2279,7 @@
         <v>198</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C158" s="5"/>
     </row>
@@ -2348,7 +2288,7 @@
         <v>199</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C159" s="5"/>
     </row>
@@ -2357,7 +2297,7 @@
         <v>200</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C160" s="5"/>
     </row>
@@ -2366,7 +2306,7 @@
         <v>201</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C161" s="5"/>
     </row>
@@ -2375,7 +2315,7 @@
         <v>202</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C162" s="5"/>
     </row>
@@ -2384,7 +2324,7 @@
         <v>203</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C163" s="5"/>
     </row>
@@ -2393,7 +2333,7 @@
         <v>204</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C164" s="5"/>
     </row>
@@ -2402,149 +2342,9 @@
         <v>205</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C165" s="5"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2567,8 +2367,8 @@
   </sheetPr>
   <dimension ref="A1:A446"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A271" activeCellId="0" sqref="A271"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3534,1718 +3334,1718 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
-        <f aca="false">Sheet1!C166</f>
-        <v>0</v>
+      <c r="A161" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
-        <f aca="false">Sheet1!C167</f>
-        <v>0</v>
+      <c r="A162" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
-        <f aca="false">Sheet1!C168</f>
-        <v>0</v>
+      <c r="A163" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
-        <f aca="false">Sheet1!C169</f>
-        <v>0</v>
+      <c r="A164" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
-        <f aca="false">Sheet1!C170</f>
-        <v>0</v>
+      <c r="A165" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
-        <f aca="false">Sheet1!C171</f>
-        <v>0</v>
+      <c r="A166" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
-        <f aca="false">Sheet1!C172</f>
-        <v>0</v>
+      <c r="A167" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
-        <f aca="false">Sheet1!C173</f>
-        <v>0</v>
+      <c r="A168" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
-        <f aca="false">Sheet1!C174</f>
-        <v>0</v>
+      <c r="A169" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
-        <f aca="false">Sheet1!C175</f>
-        <v>0</v>
+      <c r="A170" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
-        <f aca="false">Sheet1!C176</f>
-        <v>0</v>
+      <c r="A171" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
-        <f aca="false">Sheet1!C177</f>
-        <v>0</v>
+      <c r="A172" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
-        <f aca="false">Sheet1!C178</f>
-        <v>0</v>
+      <c r="A173" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
-        <f aca="false">Sheet1!C179</f>
-        <v>0</v>
+      <c r="A174" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
-        <f aca="false">Sheet1!C180</f>
-        <v>0</v>
+      <c r="A175" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
-        <f aca="false">Sheet1!C181</f>
-        <v>0</v>
+      <c r="A176" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
-        <f aca="false">Sheet1!C182</f>
-        <v>0</v>
+      <c r="A177" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
-        <f aca="false">Sheet1!C183</f>
-        <v>0</v>
+      <c r="A178" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
-        <f aca="false">Sheet1!C184</f>
-        <v>0</v>
+      <c r="A179" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
-        <f aca="false">Sheet1!C185</f>
-        <v>0</v>
+      <c r="A180" s="0" t="e">
+        <f aca="false">#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
-        <f aca="false">Sheet1!C186</f>
+        <f aca="false">Sheet1!C166</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
-        <f aca="false">Sheet1!C187</f>
+        <f aca="false">Sheet1!C167</f>
         <v>0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
-        <f aca="false">Sheet1!C188</f>
+        <f aca="false">Sheet1!C168</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
-        <f aca="false">Sheet1!C189</f>
+        <f aca="false">Sheet1!C169</f>
         <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
-        <f aca="false">Sheet1!C190</f>
+        <f aca="false">Sheet1!C170</f>
         <v>0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
-        <f aca="false">Sheet1!C191</f>
+        <f aca="false">Sheet1!C171</f>
         <v>0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
-        <f aca="false">Sheet1!C192</f>
+        <f aca="false">Sheet1!C172</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
-        <f aca="false">Sheet1!C193</f>
+        <f aca="false">Sheet1!C173</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
-        <f aca="false">Sheet1!C194</f>
+        <f aca="false">Sheet1!C174</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
-        <f aca="false">Sheet1!C195</f>
+        <f aca="false">Sheet1!C175</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
-        <f aca="false">Sheet1!C196</f>
+        <f aca="false">Sheet1!C176</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
-        <f aca="false">Sheet1!C197</f>
+        <f aca="false">Sheet1!C177</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
-        <f aca="false">Sheet1!C198</f>
+        <f aca="false">Sheet1!C178</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
-        <f aca="false">Sheet1!C199</f>
+        <f aca="false">Sheet1!C179</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
-        <f aca="false">Sheet1!C200</f>
+        <f aca="false">Sheet1!C180</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
-        <f aca="false">Sheet1!C201</f>
+        <f aca="false">Sheet1!C181</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
-        <f aca="false">Sheet1!C202</f>
+        <f aca="false">Sheet1!C182</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
-        <f aca="false">Sheet1!C203</f>
+        <f aca="false">Sheet1!C183</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
-        <f aca="false">Sheet1!C204</f>
+        <f aca="false">Sheet1!C184</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
-        <f aca="false">Sheet1!C205</f>
+        <f aca="false">Sheet1!C185</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
-        <f aca="false">Sheet1!C206</f>
+        <f aca="false">Sheet1!C186</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
-        <f aca="false">Sheet1!C207</f>
+        <f aca="false">Sheet1!C187</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
-        <f aca="false">Sheet1!C208</f>
+        <f aca="false">Sheet1!C188</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
-        <f aca="false">Sheet1!C209</f>
+        <f aca="false">Sheet1!C189</f>
         <v>0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
-        <f aca="false">Sheet1!C210</f>
+        <f aca="false">Sheet1!C190</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
-        <f aca="false">Sheet1!C211</f>
+        <f aca="false">Sheet1!C191</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
-        <f aca="false">Sheet1!C212</f>
+        <f aca="false">Sheet1!C192</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
-        <f aca="false">Sheet1!C213</f>
+        <f aca="false">Sheet1!C193</f>
         <v>0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
-        <f aca="false">Sheet1!C214</f>
+        <f aca="false">Sheet1!C194</f>
         <v>0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
-        <f aca="false">Sheet1!C215</f>
+        <f aca="false">Sheet1!C195</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
-        <f aca="false">Sheet1!C216</f>
+        <f aca="false">Sheet1!C196</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
-        <f aca="false">Sheet1!C217</f>
+        <f aca="false">Sheet1!C197</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
-        <f aca="false">Sheet1!C218</f>
+        <f aca="false">Sheet1!C198</f>
         <v>0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
-        <f aca="false">Sheet1!C219</f>
+        <f aca="false">Sheet1!C199</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
-        <f aca="false">Sheet1!C220</f>
+        <f aca="false">Sheet1!C200</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
-        <f aca="false">Sheet1!C221</f>
+        <f aca="false">Sheet1!C201</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
-        <f aca="false">Sheet1!C222</f>
+        <f aca="false">Sheet1!C202</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
-        <f aca="false">Sheet1!C223</f>
+        <f aca="false">Sheet1!C203</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
-        <f aca="false">Sheet1!C224</f>
+        <f aca="false">Sheet1!C204</f>
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
-        <f aca="false">Sheet1!C225</f>
+        <f aca="false">Sheet1!C205</f>
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
-        <f aca="false">Sheet1!C226</f>
+        <f aca="false">Sheet1!C206</f>
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
-        <f aca="false">Sheet1!C227</f>
+        <f aca="false">Sheet1!C207</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
-        <f aca="false">Sheet1!C228</f>
+        <f aca="false">Sheet1!C208</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
-        <f aca="false">Sheet1!C229</f>
+        <f aca="false">Sheet1!C209</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
-        <f aca="false">Sheet1!C230</f>
+        <f aca="false">Sheet1!C210</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
-        <f aca="false">Sheet1!C231</f>
+        <f aca="false">Sheet1!C211</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
-        <f aca="false">Sheet1!C232</f>
+        <f aca="false">Sheet1!C212</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
-        <f aca="false">Sheet1!C233</f>
+        <f aca="false">Sheet1!C213</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
-        <f aca="false">Sheet1!C234</f>
+        <f aca="false">Sheet1!C214</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
-        <f aca="false">Sheet1!C235</f>
+        <f aca="false">Sheet1!C215</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
-        <f aca="false">Sheet1!C236</f>
+        <f aca="false">Sheet1!C216</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
-        <f aca="false">Sheet1!C237</f>
+        <f aca="false">Sheet1!C217</f>
         <v>0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
-        <f aca="false">Sheet1!C238</f>
+        <f aca="false">Sheet1!C218</f>
         <v>0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
-        <f aca="false">Sheet1!C239</f>
+        <f aca="false">Sheet1!C219</f>
         <v>0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
-        <f aca="false">Sheet1!C240</f>
+        <f aca="false">Sheet1!C220</f>
         <v>0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
-        <f aca="false">Sheet1!C241</f>
+        <f aca="false">Sheet1!C221</f>
         <v>0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
-        <f aca="false">Sheet1!C242</f>
+        <f aca="false">Sheet1!C222</f>
         <v>0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
-        <f aca="false">Sheet1!C243</f>
+        <f aca="false">Sheet1!C223</f>
         <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
-        <f aca="false">Sheet1!C244</f>
+        <f aca="false">Sheet1!C224</f>
         <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
-        <f aca="false">Sheet1!C245</f>
+        <f aca="false">Sheet1!C225</f>
         <v>0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
-        <f aca="false">Sheet1!C246</f>
+        <f aca="false">Sheet1!C226</f>
         <v>0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
-        <f aca="false">Sheet1!C247</f>
+        <f aca="false">Sheet1!C227</f>
         <v>0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
-        <f aca="false">Sheet1!C248</f>
+        <f aca="false">Sheet1!C228</f>
         <v>0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
-        <f aca="false">Sheet1!C249</f>
+        <f aca="false">Sheet1!C229</f>
         <v>0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
-        <f aca="false">Sheet1!C250</f>
+        <f aca="false">Sheet1!C230</f>
         <v>0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
-        <f aca="false">Sheet1!C251</f>
+        <f aca="false">Sheet1!C231</f>
         <v>0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
-        <f aca="false">Sheet1!C252</f>
+        <f aca="false">Sheet1!C232</f>
         <v>0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
-        <f aca="false">Sheet1!C253</f>
+        <f aca="false">Sheet1!C233</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
-        <f aca="false">Sheet1!C254</f>
+        <f aca="false">Sheet1!C234</f>
         <v>0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
-        <f aca="false">Sheet1!C255</f>
+        <f aca="false">Sheet1!C235</f>
         <v>0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
-        <f aca="false">Sheet1!C256</f>
+        <f aca="false">Sheet1!C236</f>
         <v>0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
-        <f aca="false">Sheet1!C257</f>
+        <f aca="false">Sheet1!C237</f>
         <v>0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
-        <f aca="false">Sheet1!C258</f>
+        <f aca="false">Sheet1!C238</f>
         <v>0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
-        <f aca="false">Sheet1!C259</f>
+        <f aca="false">Sheet1!C239</f>
         <v>0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
-        <f aca="false">Sheet1!C260</f>
+        <f aca="false">Sheet1!C240</f>
         <v>0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
-        <f aca="false">Sheet1!C261</f>
+        <f aca="false">Sheet1!C241</f>
         <v>0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
-        <f aca="false">Sheet1!C262</f>
+        <f aca="false">Sheet1!C242</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
-        <f aca="false">Sheet1!C263</f>
+        <f aca="false">Sheet1!C243</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
-        <f aca="false">Sheet1!C264</f>
+        <f aca="false">Sheet1!C244</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
-        <f aca="false">Sheet1!C265</f>
+        <f aca="false">Sheet1!C245</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
-        <f aca="false">Sheet1!C266</f>
+        <f aca="false">Sheet1!C246</f>
         <v>0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
-        <f aca="false">Sheet1!C267</f>
+        <f aca="false">Sheet1!C247</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
-        <f aca="false">Sheet1!C268</f>
+        <f aca="false">Sheet1!C248</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
-        <f aca="false">Sheet1!C269</f>
+        <f aca="false">Sheet1!C249</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
-        <f aca="false">Sheet1!C270</f>
+        <f aca="false">Sheet1!C250</f>
         <v>0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
-        <f aca="false">Sheet1!C271</f>
+        <f aca="false">Sheet1!C251</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
-        <f aca="false">Sheet1!C272</f>
+        <f aca="false">Sheet1!C252</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
-        <f aca="false">Sheet1!C273</f>
+        <f aca="false">Sheet1!C253</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
-        <f aca="false">Sheet1!C274</f>
+        <f aca="false">Sheet1!C254</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
-        <f aca="false">Sheet1!C275</f>
+        <f aca="false">Sheet1!C255</f>
         <v>0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
-        <f aca="false">Sheet1!C276</f>
+        <f aca="false">Sheet1!C256</f>
         <v>0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
-        <f aca="false">Sheet1!C277</f>
+        <f aca="false">Sheet1!C257</f>
         <v>0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
-        <f aca="false">Sheet1!C278</f>
+        <f aca="false">Sheet1!C258</f>
         <v>0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
-        <f aca="false">Sheet1!C279</f>
+        <f aca="false">Sheet1!C259</f>
         <v>0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
-        <f aca="false">Sheet1!C280</f>
+        <f aca="false">Sheet1!C260</f>
         <v>0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
-        <f aca="false">Sheet1!C281</f>
+        <f aca="false">Sheet1!C261</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
-        <f aca="false">Sheet1!C282</f>
+        <f aca="false">Sheet1!C262</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
-        <f aca="false">Sheet1!C283</f>
+        <f aca="false">Sheet1!C263</f>
         <v>0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
-        <f aca="false">Sheet1!C284</f>
+        <f aca="false">Sheet1!C264</f>
         <v>0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
-        <f aca="false">Sheet1!C285</f>
+        <f aca="false">Sheet1!C265</f>
         <v>0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
-        <f aca="false">Sheet1!C286</f>
+        <f aca="false">Sheet1!C266</f>
         <v>0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
-        <f aca="false">Sheet1!C287</f>
+        <f aca="false">Sheet1!C267</f>
         <v>0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
-        <f aca="false">Sheet1!C288</f>
+        <f aca="false">Sheet1!C268</f>
         <v>0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
-        <f aca="false">Sheet1!C289</f>
+        <f aca="false">Sheet1!C269</f>
         <v>0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
-        <f aca="false">Sheet1!C290</f>
+        <f aca="false">Sheet1!C270</f>
         <v>0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
-        <f aca="false">Sheet1!C291</f>
+        <f aca="false">Sheet1!C271</f>
         <v>0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
-        <f aca="false">Sheet1!C292</f>
+        <f aca="false">Sheet1!C272</f>
         <v>0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
-        <f aca="false">Sheet1!C293</f>
+        <f aca="false">Sheet1!C273</f>
         <v>0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
-        <f aca="false">Sheet1!C294</f>
+        <f aca="false">Sheet1!C274</f>
         <v>0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
-        <f aca="false">Sheet1!C295</f>
+        <f aca="false">Sheet1!C275</f>
         <v>0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
-        <f aca="false">Sheet1!C296</f>
+        <f aca="false">Sheet1!C276</f>
         <v>0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
-        <f aca="false">Sheet1!C297</f>
+        <f aca="false">Sheet1!C277</f>
         <v>0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
-        <f aca="false">Sheet1!C298</f>
+        <f aca="false">Sheet1!C278</f>
         <v>0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
-        <f aca="false">Sheet1!C299</f>
+        <f aca="false">Sheet1!C279</f>
         <v>0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
-        <f aca="false">Sheet1!C300</f>
+        <f aca="false">Sheet1!C280</f>
         <v>0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
-        <f aca="false">Sheet1!C301</f>
+        <f aca="false">Sheet1!C281</f>
         <v>0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
-        <f aca="false">Sheet1!C302</f>
+        <f aca="false">Sheet1!C282</f>
         <v>0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
-        <f aca="false">Sheet1!C303</f>
+        <f aca="false">Sheet1!C283</f>
         <v>0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
-        <f aca="false">Sheet1!C304</f>
+        <f aca="false">Sheet1!C284</f>
         <v>0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
-        <f aca="false">Sheet1!C305</f>
+        <f aca="false">Sheet1!C285</f>
         <v>0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
-        <f aca="false">Sheet1!C306</f>
+        <f aca="false">Sheet1!C286</f>
         <v>0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
-        <f aca="false">Sheet1!C307</f>
+        <f aca="false">Sheet1!C287</f>
         <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
-        <f aca="false">Sheet1!C308</f>
+        <f aca="false">Sheet1!C288</f>
         <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
-        <f aca="false">Sheet1!C309</f>
+        <f aca="false">Sheet1!C289</f>
         <v>0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
-        <f aca="false">Sheet1!C310</f>
+        <f aca="false">Sheet1!C290</f>
         <v>0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
-        <f aca="false">Sheet1!C311</f>
+        <f aca="false">Sheet1!C291</f>
         <v>0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
-        <f aca="false">Sheet1!C312</f>
+        <f aca="false">Sheet1!C292</f>
         <v>0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
-        <f aca="false">Sheet1!C313</f>
+        <f aca="false">Sheet1!C293</f>
         <v>0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
-        <f aca="false">Sheet1!C314</f>
+        <f aca="false">Sheet1!C294</f>
         <v>0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
-        <f aca="false">Sheet1!C315</f>
+        <f aca="false">Sheet1!C295</f>
         <v>0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
-        <f aca="false">Sheet1!C316</f>
+        <f aca="false">Sheet1!C296</f>
         <v>0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
-        <f aca="false">Sheet1!C317</f>
+        <f aca="false">Sheet1!C297</f>
         <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
-        <f aca="false">Sheet1!C318</f>
+        <f aca="false">Sheet1!C298</f>
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
-        <f aca="false">Sheet1!C319</f>
+        <f aca="false">Sheet1!C299</f>
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
-        <f aca="false">Sheet1!C320</f>
+        <f aca="false">Sheet1!C300</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
-        <f aca="false">Sheet1!C321</f>
+        <f aca="false">Sheet1!C301</f>
         <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
-        <f aca="false">Sheet1!C322</f>
+        <f aca="false">Sheet1!C302</f>
         <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
-        <f aca="false">Sheet1!C323</f>
+        <f aca="false">Sheet1!C303</f>
         <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
-        <f aca="false">Sheet1!C324</f>
+        <f aca="false">Sheet1!C304</f>
         <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
-        <f aca="false">Sheet1!C325</f>
+        <f aca="false">Sheet1!C305</f>
         <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
-        <f aca="false">Sheet1!C326</f>
+        <f aca="false">Sheet1!C306</f>
         <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
-        <f aca="false">Sheet1!C327</f>
+        <f aca="false">Sheet1!C307</f>
         <v>0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
-        <f aca="false">Sheet1!C328</f>
+        <f aca="false">Sheet1!C308</f>
         <v>0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
-        <f aca="false">Sheet1!C329</f>
+        <f aca="false">Sheet1!C309</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
-        <f aca="false">Sheet1!C330</f>
+        <f aca="false">Sheet1!C310</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
-        <f aca="false">Sheet1!C331</f>
+        <f aca="false">Sheet1!C311</f>
         <v>0</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
-        <f aca="false">Sheet1!C332</f>
+        <f aca="false">Sheet1!C312</f>
         <v>0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
-        <f aca="false">Sheet1!C333</f>
+        <f aca="false">Sheet1!C313</f>
         <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
-        <f aca="false">Sheet1!C334</f>
+        <f aca="false">Sheet1!C314</f>
         <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
-        <f aca="false">Sheet1!C335</f>
+        <f aca="false">Sheet1!C315</f>
         <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
-        <f aca="false">Sheet1!C336</f>
+        <f aca="false">Sheet1!C316</f>
         <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
-        <f aca="false">Sheet1!C337</f>
+        <f aca="false">Sheet1!C317</f>
         <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
-        <f aca="false">Sheet1!C338</f>
+        <f aca="false">Sheet1!C318</f>
         <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
-        <f aca="false">Sheet1!C339</f>
+        <f aca="false">Sheet1!C319</f>
         <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
-        <f aca="false">Sheet1!C340</f>
+        <f aca="false">Sheet1!C320</f>
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
-        <f aca="false">Sheet1!C341</f>
+        <f aca="false">Sheet1!C321</f>
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
-        <f aca="false">Sheet1!C342</f>
+        <f aca="false">Sheet1!C322</f>
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
-        <f aca="false">Sheet1!C343</f>
+        <f aca="false">Sheet1!C323</f>
         <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
-        <f aca="false">Sheet1!C344</f>
+        <f aca="false">Sheet1!C324</f>
         <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
-        <f aca="false">Sheet1!C345</f>
+        <f aca="false">Sheet1!C325</f>
         <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
-        <f aca="false">Sheet1!C346</f>
+        <f aca="false">Sheet1!C326</f>
         <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
-        <f aca="false">Sheet1!C347</f>
+        <f aca="false">Sheet1!C327</f>
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
-        <f aca="false">Sheet1!C348</f>
+        <f aca="false">Sheet1!C328</f>
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
-        <f aca="false">Sheet1!C349</f>
+        <f aca="false">Sheet1!C329</f>
         <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
-        <f aca="false">Sheet1!C350</f>
+        <f aca="false">Sheet1!C330</f>
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
-        <f aca="false">Sheet1!C351</f>
+        <f aca="false">Sheet1!C331</f>
         <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
-        <f aca="false">Sheet1!C352</f>
+        <f aca="false">Sheet1!C332</f>
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
-        <f aca="false">Sheet1!C353</f>
+        <f aca="false">Sheet1!C333</f>
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
-        <f aca="false">Sheet1!C354</f>
+        <f aca="false">Sheet1!C334</f>
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
-        <f aca="false">Sheet1!C355</f>
+        <f aca="false">Sheet1!C335</f>
         <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
-        <f aca="false">Sheet1!C356</f>
+        <f aca="false">Sheet1!C336</f>
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
-        <f aca="false">Sheet1!C357</f>
+        <f aca="false">Sheet1!C337</f>
         <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
-        <f aca="false">Sheet1!C358</f>
+        <f aca="false">Sheet1!C338</f>
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
-        <f aca="false">Sheet1!C359</f>
+        <f aca="false">Sheet1!C339</f>
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
-        <f aca="false">Sheet1!C360</f>
+        <f aca="false">Sheet1!C340</f>
         <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
-        <f aca="false">Sheet1!C361</f>
+        <f aca="false">Sheet1!C341</f>
         <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
-        <f aca="false">Sheet1!C362</f>
+        <f aca="false">Sheet1!C342</f>
         <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
-        <f aca="false">Sheet1!C363</f>
+        <f aca="false">Sheet1!C343</f>
         <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
-        <f aca="false">Sheet1!C364</f>
+        <f aca="false">Sheet1!C344</f>
         <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
-        <f aca="false">Sheet1!C365</f>
+        <f aca="false">Sheet1!C345</f>
         <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
-        <f aca="false">Sheet1!C366</f>
+        <f aca="false">Sheet1!C346</f>
         <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
-        <f aca="false">Sheet1!C367</f>
+        <f aca="false">Sheet1!C347</f>
         <v>0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
-        <f aca="false">Sheet1!C368</f>
+        <f aca="false">Sheet1!C348</f>
         <v>0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
-        <f aca="false">Sheet1!C369</f>
+        <f aca="false">Sheet1!C349</f>
         <v>0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
-        <f aca="false">Sheet1!C370</f>
+        <f aca="false">Sheet1!C350</f>
         <v>0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
-        <f aca="false">Sheet1!C371</f>
+        <f aca="false">Sheet1!C351</f>
         <v>0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
-        <f aca="false">Sheet1!C372</f>
+        <f aca="false">Sheet1!C352</f>
         <v>0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
-        <f aca="false">Sheet1!C373</f>
+        <f aca="false">Sheet1!C353</f>
         <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
-        <f aca="false">Sheet1!C374</f>
+        <f aca="false">Sheet1!C354</f>
         <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
-        <f aca="false">Sheet1!C375</f>
+        <f aca="false">Sheet1!C355</f>
         <v>0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
-        <f aca="false">Sheet1!C376</f>
+        <f aca="false">Sheet1!C356</f>
         <v>0</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
-        <f aca="false">Sheet1!C377</f>
+        <f aca="false">Sheet1!C357</f>
         <v>0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
-        <f aca="false">Sheet1!C378</f>
+        <f aca="false">Sheet1!C358</f>
         <v>0</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
-        <f aca="false">Sheet1!C379</f>
+        <f aca="false">Sheet1!C359</f>
         <v>0</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
-        <f aca="false">Sheet1!C380</f>
+        <f aca="false">Sheet1!C360</f>
         <v>0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
-        <f aca="false">Sheet1!C381</f>
+        <f aca="false">Sheet1!C361</f>
         <v>0</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
-        <f aca="false">Sheet1!C382</f>
+        <f aca="false">Sheet1!C362</f>
         <v>0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
-        <f aca="false">Sheet1!C383</f>
+        <f aca="false">Sheet1!C363</f>
         <v>0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
-        <f aca="false">Sheet1!C384</f>
+        <f aca="false">Sheet1!C364</f>
         <v>0</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
-        <f aca="false">Sheet1!C385</f>
+        <f aca="false">Sheet1!C365</f>
         <v>0</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
-        <f aca="false">Sheet1!C386</f>
+        <f aca="false">Sheet1!C366</f>
         <v>0</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
-        <f aca="false">Sheet1!C387</f>
+        <f aca="false">Sheet1!C367</f>
         <v>0</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
-        <f aca="false">Sheet1!C388</f>
+        <f aca="false">Sheet1!C368</f>
         <v>0</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
-        <f aca="false">Sheet1!C389</f>
+        <f aca="false">Sheet1!C369</f>
         <v>0</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
-        <f aca="false">Sheet1!C390</f>
+        <f aca="false">Sheet1!C370</f>
         <v>0</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="n">
-        <f aca="false">Sheet1!C391</f>
+        <f aca="false">Sheet1!C371</f>
         <v>0</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
-        <f aca="false">Sheet1!C392</f>
+        <f aca="false">Sheet1!C372</f>
         <v>0</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
-        <f aca="false">Sheet1!C393</f>
+        <f aca="false">Sheet1!C373</f>
         <v>0</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
-        <f aca="false">Sheet1!C394</f>
+        <f aca="false">Sheet1!C374</f>
         <v>0</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
-        <f aca="false">Sheet1!C395</f>
+        <f aca="false">Sheet1!C375</f>
         <v>0</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
-        <f aca="false">Sheet1!C396</f>
+        <f aca="false">Sheet1!C376</f>
         <v>0</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
-        <f aca="false">Sheet1!C397</f>
+        <f aca="false">Sheet1!C377</f>
         <v>0</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="n">
-        <f aca="false">Sheet1!C398</f>
+        <f aca="false">Sheet1!C378</f>
         <v>0</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
-        <f aca="false">Sheet1!C399</f>
+        <f aca="false">Sheet1!C379</f>
         <v>0</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
-        <f aca="false">Sheet1!C400</f>
+        <f aca="false">Sheet1!C380</f>
         <v>0</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
-        <f aca="false">Sheet1!C401</f>
+        <f aca="false">Sheet1!C381</f>
         <v>0</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
-        <f aca="false">Sheet1!C402</f>
+        <f aca="false">Sheet1!C382</f>
         <v>0</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
-        <f aca="false">Sheet1!C403</f>
+        <f aca="false">Sheet1!C383</f>
         <v>0</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
-        <f aca="false">Sheet1!C404</f>
+        <f aca="false">Sheet1!C384</f>
         <v>0</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
-        <f aca="false">Sheet1!C405</f>
+        <f aca="false">Sheet1!C385</f>
         <v>0</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
-        <f aca="false">Sheet1!C406</f>
+        <f aca="false">Sheet1!C386</f>
         <v>0</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="n">
-        <f aca="false">Sheet1!C407</f>
+        <f aca="false">Sheet1!C387</f>
         <v>0</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
-        <f aca="false">Sheet1!C408</f>
+        <f aca="false">Sheet1!C388</f>
         <v>0</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="n">
-        <f aca="false">Sheet1!C409</f>
+        <f aca="false">Sheet1!C389</f>
         <v>0</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
-        <f aca="false">Sheet1!C410</f>
+        <f aca="false">Sheet1!C390</f>
         <v>0</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
-        <f aca="false">Sheet1!C411</f>
+        <f aca="false">Sheet1!C391</f>
         <v>0</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
-        <f aca="false">Sheet1!C412</f>
+        <f aca="false">Sheet1!C392</f>
         <v>0</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
-        <f aca="false">Sheet1!C413</f>
+        <f aca="false">Sheet1!C393</f>
         <v>0</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
-        <f aca="false">Sheet1!C414</f>
+        <f aca="false">Sheet1!C394</f>
         <v>0</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="n">
-        <f aca="false">Sheet1!C415</f>
+        <f aca="false">Sheet1!C395</f>
         <v>0</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="n">
-        <f aca="false">Sheet1!C416</f>
+        <f aca="false">Sheet1!C396</f>
         <v>0</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="n">
-        <f aca="false">Sheet1!C417</f>
+        <f aca="false">Sheet1!C397</f>
         <v>0</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
-        <f aca="false">Sheet1!C418</f>
+        <f aca="false">Sheet1!C398</f>
         <v>0</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="n">
-        <f aca="false">Sheet1!C419</f>
+        <f aca="false">Sheet1!C399</f>
         <v>0</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
-        <f aca="false">Sheet1!C420</f>
+        <f aca="false">Sheet1!C400</f>
         <v>0</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
-        <f aca="false">Sheet1!C421</f>
+        <f aca="false">Sheet1!C401</f>
         <v>0</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
-        <f aca="false">Sheet1!C422</f>
+        <f aca="false">Sheet1!C402</f>
         <v>0</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="n">
-        <f aca="false">Sheet1!C423</f>
+        <f aca="false">Sheet1!C403</f>
         <v>0</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
-        <f aca="false">Sheet1!C424</f>
+        <f aca="false">Sheet1!C404</f>
         <v>0</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="n">
-        <f aca="false">Sheet1!C425</f>
+        <f aca="false">Sheet1!C405</f>
         <v>0</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="n">
-        <f aca="false">Sheet1!C426</f>
+        <f aca="false">Sheet1!C406</f>
         <v>0</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="n">
-        <f aca="false">Sheet1!C427</f>
+        <f aca="false">Sheet1!C407</f>
         <v>0</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="n">
-        <f aca="false">Sheet1!C428</f>
+        <f aca="false">Sheet1!C408</f>
         <v>0</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="n">
-        <f aca="false">Sheet1!C429</f>
+        <f aca="false">Sheet1!C409</f>
         <v>0</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="n">
-        <f aca="false">Sheet1!C430</f>
+        <f aca="false">Sheet1!C410</f>
         <v>0</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="n">
-        <f aca="false">Sheet1!C431</f>
+        <f aca="false">Sheet1!C411</f>
         <v>0</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
-        <f aca="false">Sheet1!C432</f>
+        <f aca="false">Sheet1!C412</f>
         <v>0</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="n">
-        <f aca="false">Sheet1!C433</f>
+        <f aca="false">Sheet1!C413</f>
         <v>0</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="n">
-        <f aca="false">Sheet1!C434</f>
+        <f aca="false">Sheet1!C414</f>
         <v>0</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="n">
-        <f aca="false">Sheet1!C435</f>
+        <f aca="false">Sheet1!C415</f>
         <v>0</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="n">
-        <f aca="false">Sheet1!C436</f>
+        <f aca="false">Sheet1!C416</f>
         <v>0</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
-        <f aca="false">Sheet1!C437</f>
+        <f aca="false">Sheet1!C417</f>
         <v>0</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="n">
-        <f aca="false">Sheet1!C438</f>
+        <f aca="false">Sheet1!C418</f>
         <v>0</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="n">
-        <f aca="false">Sheet1!C439</f>
+        <f aca="false">Sheet1!C419</f>
         <v>0</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="n">
-        <f aca="false">Sheet1!C440</f>
+        <f aca="false">Sheet1!C420</f>
         <v>0</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="n">
-        <f aca="false">Sheet1!C441</f>
+        <f aca="false">Sheet1!C421</f>
         <v>0</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
-        <f aca="false">Sheet1!C442</f>
+        <f aca="false">Sheet1!C422</f>
         <v>0</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
-        <f aca="false">Sheet1!C443</f>
+        <f aca="false">Sheet1!C423</f>
         <v>0</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="n">
-        <f aca="false">Sheet1!C444</f>
+        <f aca="false">Sheet1!C424</f>
         <v>0</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="n">
-        <f aca="false">Sheet1!C445</f>
+        <f aca="false">Sheet1!C425</f>
         <v>0</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
-        <f aca="false">Sheet1!C446</f>
+        <f aca="false">Sheet1!C426</f>
         <v>0</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="n">
-        <f aca="false">Sheet1!C447</f>
+        <f aca="false">Sheet1!C427</f>
         <v>0</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
-        <f aca="false">Sheet1!C448</f>
+        <f aca="false">Sheet1!C428</f>
         <v>0</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="n">
-        <f aca="false">Sheet1!C449</f>
+        <f aca="false">Sheet1!C429</f>
         <v>0</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="n">
-        <f aca="false">Sheet1!C450</f>
+        <f aca="false">Sheet1!C430</f>
         <v>0</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="n">
-        <f aca="false">Sheet1!C451</f>
+        <f aca="false">Sheet1!C431</f>
         <v>0</v>
       </c>
     </row>
